--- a/Excel_Macros/Project_Summary_Template.xlsx
+++ b/Excel_Macros/Project_Summary_Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan_Programming\Programs\WaveAnalysisScripts\Excel_Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Danware\Git_Repos\WaveAnalysisScripts\Excel_Macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Duration</t>
   </si>
@@ -91,15 +91,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Delete?</t>
@@ -194,10 +185,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -215,15 +203,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -376,7 +355,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Population ID"/>
@@ -389,62 +368,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="11" name="ID" dataDxfId="27"/>
-    <tableColumn id="9" name="Name" dataDxfId="26"/>
-    <tableColumn id="1" name="Date Prepared" dataDxfId="25"/>
-    <tableColumn id="4" name="Age" dataDxfId="24"/>
-    <tableColumn id="3" name="Sex" dataDxfId="23"/>
-    <tableColumn id="6" name="Genotype" dataDxfId="22"/>
-    <tableColumn id="7" name="Comments" dataDxfId="21"/>
+    <tableColumn id="11" name="ID" dataDxfId="23"/>
+    <tableColumn id="9" name="Name" dataDxfId="22"/>
+    <tableColumn id="1" name="Date Prepared" dataDxfId="21"/>
+    <tableColumn id="4" name="Age" dataDxfId="20"/>
+    <tableColumn id="3" name="Sex" dataDxfId="19"/>
+    <tableColumn id="6" name="Genotype" dataDxfId="18"/>
+    <tableColumn id="7" name="Comments" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Recordings" displayName="Recordings" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Recordings" displayName="Recordings" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="13" name="ID" dataDxfId="18"/>
-    <tableColumn id="9" name="Tissue ID" dataDxfId="17"/>
-    <tableColumn id="2" name="Recording Number" dataDxfId="16"/>
-    <tableColumn id="10" name="MEA" dataDxfId="15"/>
-    <tableColumn id="5" name="Conditions" dataDxfId="14"/>
-    <tableColumn id="8" name="StartStamp" dataDxfId="13">
+    <tableColumn id="13" name="ID" dataDxfId="14"/>
+    <tableColumn id="9" name="Tissue ID" dataDxfId="13"/>
+    <tableColumn id="2" name="Recording Number" dataDxfId="12"/>
+    <tableColumn id="10" name="MEA" dataDxfId="11"/>
+    <tableColumn id="5" name="Conditions" dataDxfId="10"/>
+    <tableColumn id="8" name="StartStamp" dataDxfId="9">
       <calculatedColumnFormula>IF(Recordings[[#This Row],[Tissue ID]]&lt;&gt;OFFSET(Recordings[[#This Row],[Tissue ID]],-1,0),0,OFFSET(Recordings[[#This Row],[EndStamp]],-1,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="EndStamp" dataDxfId="12">
+    <tableColumn id="12" name="EndStamp" dataDxfId="8">
       <calculatedColumnFormula>Recordings[[#This Row],[StartStamp]]+Recordings[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Duration" dataDxfId="11"/>
-    <tableColumn id="14" name="Comments" dataDxfId="10"/>
+    <tableColumn id="3" name="Duration" dataDxfId="7"/>
+    <tableColumn id="14" name="Comments" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Unit_Removal" displayName="Unit_Removal" ref="A6:E7" insertRow="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A6:E7"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Population ID" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Unit_Removal" displayName="Unit_Removal" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
     <tableColumn id="2" name="Tissue ID" dataDxfId="3"/>
     <tableColumn id="3" name="Unit" dataDxfId="2"/>
     <tableColumn id="4" name="Delete?" dataDxfId="1"/>
     <tableColumn id="5" name="Exclude?" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="RemovalTypes" displayName="RemovalTypes" ref="A1:A3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:A3"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Type" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -526,6 +494,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -561,6 +546,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,79 +887,57 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D7"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel_Macros/Project_Summary_Template.xlsx
+++ b/Excel_Macros/Project_Summary_Template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Danware\Git_Repos\WaveAnalysisScripts\Excel_Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan_Programming\Programs\WaveAnalysisScripts\Excel_Macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Populations" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="TTTails">[1]Stats!$B$3</definedName>
     <definedName name="TTType">[1]Stats!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -160,9 +160,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,10 +171,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -185,13 +182,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -205,6 +196,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -212,10 +209,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -223,58 +226,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,27 +367,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Population ID"/>
-    <tableColumn id="4" name="Name"/>
-    <tableColumn id="3" name="Abbreviation"/>
-    <tableColumn id="2" name="Control?"/>
+    <tableColumn id="1" name="Population ID" dataDxfId="29"/>
+    <tableColumn id="4" name="Name" dataDxfId="28"/>
+    <tableColumn id="3" name="Abbreviation" dataDxfId="26"/>
+    <tableColumn id="2" name="Control?" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
   <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="11" name="ID" dataDxfId="23"/>
-    <tableColumn id="9" name="Name" dataDxfId="22"/>
-    <tableColumn id="1" name="Date Prepared" dataDxfId="21"/>
-    <tableColumn id="4" name="Age" dataDxfId="20"/>
-    <tableColumn id="3" name="Sex" dataDxfId="19"/>
+    <tableColumn id="11" name="ID" dataDxfId="21"/>
+    <tableColumn id="9" name="Name" dataDxfId="19"/>
+    <tableColumn id="1" name="Date Prepared" dataDxfId="20"/>
+    <tableColumn id="4" name="Age" dataDxfId="23"/>
+    <tableColumn id="3" name="Sex" dataDxfId="22"/>
     <tableColumn id="6" name="Genotype" dataDxfId="18"/>
     <tableColumn id="7" name="Comments" dataDxfId="17"/>
   </tableColumns>
@@ -384,18 +396,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Recordings" displayName="Recordings" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Recordings" displayName="Recordings" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
     <tableColumn id="13" name="ID" dataDxfId="14"/>
     <tableColumn id="9" name="Tissue ID" dataDxfId="13"/>
     <tableColumn id="2" name="Recording Number" dataDxfId="12"/>
-    <tableColumn id="10" name="MEA" dataDxfId="11"/>
-    <tableColumn id="5" name="Conditions" dataDxfId="10"/>
+    <tableColumn id="10" name="MEA" dataDxfId="10"/>
+    <tableColumn id="5" name="Conditions" dataDxfId="8"/>
     <tableColumn id="8" name="StartStamp" dataDxfId="9">
       <calculatedColumnFormula>IF(Recordings[[#This Row],[Tissue ID]]&lt;&gt;OFFSET(Recordings[[#This Row],[Tissue ID]],-1,0),0,OFFSET(Recordings[[#This Row],[EndStamp]],-1,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="EndStamp" dataDxfId="8">
+    <tableColumn id="12" name="EndStamp" dataDxfId="11">
       <calculatedColumnFormula>Recordings[[#This Row],[StartStamp]]+Recordings[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Duration" dataDxfId="7"/>
@@ -406,13 +418,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Unit_Removal" displayName="Unit_Removal" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Unit_Removal" displayName="Unit_Removal" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="Tissue ID" dataDxfId="3"/>
-    <tableColumn id="3" name="Unit" dataDxfId="2"/>
+    <tableColumn id="2" name="Tissue ID" dataDxfId="2"/>
+    <tableColumn id="3" name="Unit" dataDxfId="0"/>
     <tableColumn id="4" name="Delete?" dataDxfId="1"/>
-    <tableColumn id="5" name="Exclude?" dataDxfId="0"/>
+    <tableColumn id="5" name="Exclude?" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -494,23 +506,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -546,23 +541,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,33 +694,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,13 +747,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,11 +783,9 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,15 +806,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5703125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,13 +850,11 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -889,20 +870,20 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="4"/>
+    <col min="11" max="11" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -918,16 +899,16 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Excel_Macros/Project_Summary_Template.xlsx
+++ b/Excel_Macros/Project_Summary_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Populations" sheetId="19" r:id="rId1"/>
@@ -193,15 +193,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -209,17 +209,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -234,15 +234,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -250,18 +261,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -274,19 +277,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,27 +367,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Population ID" dataDxfId="29"/>
     <tableColumn id="4" name="Name" dataDxfId="28"/>
-    <tableColumn id="3" name="Abbreviation" dataDxfId="26"/>
-    <tableColumn id="2" name="Control?" dataDxfId="27"/>
+    <tableColumn id="3" name="Abbreviation" dataDxfId="27"/>
+    <tableColumn id="2" name="Control?" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="11" name="ID" dataDxfId="21"/>
-    <tableColumn id="9" name="Name" dataDxfId="19"/>
-    <tableColumn id="1" name="Date Prepared" dataDxfId="20"/>
-    <tableColumn id="4" name="Age" dataDxfId="23"/>
-    <tableColumn id="3" name="Sex" dataDxfId="22"/>
+    <tableColumn id="11" name="ID" dataDxfId="23"/>
+    <tableColumn id="9" name="Name" dataDxfId="22"/>
+    <tableColumn id="1" name="Date Prepared" dataDxfId="21"/>
+    <tableColumn id="4" name="Age" dataDxfId="20"/>
+    <tableColumn id="3" name="Sex" dataDxfId="19"/>
     <tableColumn id="6" name="Genotype" dataDxfId="18"/>
     <tableColumn id="7" name="Comments" dataDxfId="17"/>
   </tableColumns>
@@ -396,18 +396,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Recordings" displayName="Recordings" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Recordings" displayName="Recordings" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
     <tableColumn id="13" name="ID" dataDxfId="14"/>
     <tableColumn id="9" name="Tissue ID" dataDxfId="13"/>
     <tableColumn id="2" name="Recording Number" dataDxfId="12"/>
-    <tableColumn id="10" name="MEA" dataDxfId="10"/>
-    <tableColumn id="5" name="Conditions" dataDxfId="8"/>
+    <tableColumn id="10" name="MEA" dataDxfId="11"/>
+    <tableColumn id="5" name="Conditions" dataDxfId="10"/>
     <tableColumn id="8" name="StartStamp" dataDxfId="9">
       <calculatedColumnFormula>IF(Recordings[[#This Row],[Tissue ID]]&lt;&gt;OFFSET(Recordings[[#This Row],[Tissue ID]],-1,0),0,OFFSET(Recordings[[#This Row],[EndStamp]],-1,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="EndStamp" dataDxfId="11">
+    <tableColumn id="12" name="EndStamp" dataDxfId="8">
       <calculatedColumnFormula>Recordings[[#This Row],[StartStamp]]+Recordings[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Duration" dataDxfId="7"/>
@@ -418,13 +418,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Unit_Removal" displayName="Unit_Removal" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Unit_Removal" displayName="Unit_Removal" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="Tissue ID" dataDxfId="2"/>
-    <tableColumn id="3" name="Unit" dataDxfId="0"/>
+    <tableColumn id="2" name="Tissue ID" dataDxfId="3"/>
+    <tableColumn id="3" name="Unit" dataDxfId="2"/>
     <tableColumn id="4" name="Delete?" dataDxfId="1"/>
-    <tableColumn id="5" name="Exclude?" dataDxfId="5"/>
+    <tableColumn id="5" name="Exclude?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,7 +696,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -870,7 +870,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel_Macros/Project_Summary_Template.xlsx
+++ b/Excel_Macros/Project_Summary_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan_Programming\Programs\WaveAnalysisScripts\Excel_Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RennaLabSA1\Desktop\Dan's Folder\Git_Repos\WaveAnalysisScripts\Excel_Macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Duration</t>
   </si>
@@ -63,9 +63,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Tissue ID</t>
-  </si>
-  <si>
     <t>Date Prepared</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Population ID</t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>Exclude?</t>
+  </si>
+  <si>
+    <t>Tissue Name</t>
   </si>
 </sst>
 </file>
@@ -182,7 +179,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="30">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -261,10 +258,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -278,9 +271,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -367,23 +357,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Population ID" dataDxfId="29"/>
-    <tableColumn id="4" name="Name" dataDxfId="28"/>
-    <tableColumn id="3" name="Abbreviation" dataDxfId="27"/>
-    <tableColumn id="2" name="Control?" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:C2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="4" name="Name" dataDxfId="27"/>
+    <tableColumn id="3" name="Abbreviation" dataDxfId="26"/>
+    <tableColumn id="2" name="Control?" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
-    <tableColumn id="11" name="ID" dataDxfId="23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:F2" insertRow="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
     <tableColumn id="9" name="Name" dataDxfId="22"/>
     <tableColumn id="1" name="Date Prepared" dataDxfId="21"/>
     <tableColumn id="4" name="Age" dataDxfId="20"/>
@@ -400,12 +388,12 @@
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
     <tableColumn id="13" name="ID" dataDxfId="14"/>
-    <tableColumn id="9" name="Tissue ID" dataDxfId="13"/>
+    <tableColumn id="9" name="Tissue Name" dataDxfId="13"/>
     <tableColumn id="2" name="Recording Number" dataDxfId="12"/>
     <tableColumn id="10" name="MEA" dataDxfId="11"/>
     <tableColumn id="5" name="Conditions" dataDxfId="10"/>
     <tableColumn id="8" name="StartStamp" dataDxfId="9">
-      <calculatedColumnFormula>IF(Recordings[[#This Row],[Tissue ID]]&lt;&gt;OFFSET(Recordings[[#This Row],[Tissue ID]],-1,0),0,OFFSET(Recordings[[#This Row],[EndStamp]],-1,0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Recordings[[#This Row],[Tissue Name]]&lt;&gt;OFFSET(Recordings[[#This Row],[Tissue Name]],-1,0),0,OFFSET(Recordings[[#This Row],[EndStamp]],-1,0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="EndStamp" dataDxfId="8">
       <calculatedColumnFormula>Recordings[[#This Row],[StartStamp]]+Recordings[[#This Row],[Duration]]</calculatedColumnFormula>
@@ -421,7 +409,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Unit_Removal" displayName="Unit_Removal" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="Tissue ID" dataDxfId="3"/>
+    <tableColumn id="2" name="Tissue Name" dataDxfId="3"/>
     <tableColumn id="3" name="Unit" dataDxfId="2"/>
     <tableColumn id="4" name="Delete?" dataDxfId="1"/>
     <tableColumn id="5" name="Exclude?" dataDxfId="0"/>
@@ -694,7 +682,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -702,30 +690,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -739,7 +723,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -747,45 +731,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="31.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="6"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -801,13 +780,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="4" bestFit="1" customWidth="1"/>
@@ -823,10 +802,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -838,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -876,7 +855,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
@@ -888,16 +867,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>

--- a/Excel_Macros/Project_Summary_Template.xlsx
+++ b/Excel_Macros/Project_Summary_Template.xlsx
@@ -5,20 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RennaLabSA1\Desktop\Dan's Folder\Git_Repos\WaveAnalysisScripts\Excel_Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dan\WaveAnalysisScripts\Excel_Macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Populations" sheetId="19" r:id="rId1"/>
-    <sheet name="Tissues" sheetId="15" r:id="rId2"/>
-    <sheet name="Recordings" sheetId="18" r:id="rId3"/>
-    <sheet name="Unit_Removal" sheetId="20" r:id="rId4"/>
+    <sheet name="Tissues" sheetId="15" r:id="rId1"/>
+    <sheet name="Recordings" sheetId="18" r:id="rId2"/>
+    <sheet name="Unit_Removal" sheetId="20" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="PropertyCols">[1]Figures!$A$4</definedName>
@@ -27,7 +26,7 @@
     <definedName name="TTTails">[1]Stats!$B$3</definedName>
     <definedName name="TTType">[1]Stats!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Duration</t>
   </si>
@@ -78,12 +77,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>Control?</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -99,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +172,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="25">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -255,21 +248,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -357,18 +335,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Populations" displayName="Populations" ref="A1:C2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
-    <tableColumn id="4" name="Name" dataDxfId="27"/>
-    <tableColumn id="3" name="Abbreviation" dataDxfId="26"/>
-    <tableColumn id="2" name="Control?" dataDxfId="25"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tissues" displayName="Tissues" ref="A1:F2" insertRow="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:F2"/>
   <tableColumns count="6">
@@ -383,7 +349,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Recordings" displayName="Recordings" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
@@ -405,7 +371,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Unit_Removal" displayName="Unit_Removal" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
@@ -681,51 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -774,13 +699,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -844,12 +769,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -867,16 +792,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
